--- a/robots/jackal/vision_based_navigation_ttt/tau_values_no_flag/tau_value72.xlsx
+++ b/robots/jackal/vision_based_navigation_ttt/tau_values_no_flag/tau_value72.xlsx
@@ -348,19 +348,19 @@
   <sheetData>
     <row r="1" spans="1:5">
       <c r="A1">
-        <v>1.152234724974671</v>
+        <v>4.382629871368408</v>
       </c>
       <c r="B1">
-        <v>1.791725617161026</v>
+        <v>4.421439170837402</v>
       </c>
       <c r="C1">
-        <v>1.810090438293522</v>
+        <v>5.674187183380127</v>
       </c>
       <c r="D1">
-        <v>2.198351887667661</v>
+        <v>8.814920425415039</v>
       </c>
       <c r="E1">
-        <v>2.607944160644434</v>
+        <v>5.765583038330078</v>
       </c>
     </row>
   </sheetData>
